--- a/biology/Écologie/Kaokoveld/Kaokoveld.xlsx
+++ b/biology/Écologie/Kaokoveld/Kaokoveld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Kaokoveld est un désert côtier du nord de la Namibie et du sud de l'Angola, dans le prolongement du désert du Namib situé au sud.
 </t>
@@ -511,9 +523,11 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il forme une écorégion de l'écozone afrotropicale dans la partie septentrionale du désert du Namib. Sa superficie est de 45 584 km2 et son statut est Critique/En danger[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il forme une écorégion de l'écozone afrotropicale dans la partie septentrionale du désert du Namib. Sa superficie est de 45 584 km2 et son statut est Critique/En danger.
 Il abrite notamment la Welwitschia mirabilis, plante emblématique de ce désert, qui figure sur les armoiries de la Namibie et sert de surnom aux joueurs de l'équipe de Namibie de rugby à XV.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Climat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le désert du Kaokoveld est aride depuis au moins 55 millions d'années, voire plus, car les conditions arides ont probablement commencé avec la fracturation du Gondwana occidental il y a 130 à 145 millions d'années lorsque la zone s'est déplacée vers sa position actuelle le long du tropique du Capricorne. Cette très longue période de sécheresse a eu une profonde influence sur la biodiversité ; il est resté un endroit climatiquement relativement stable, favorisant l'évolution à long terme des espèces végétales désertiques et des savanes sèches, ce qui a donné lieu à des assemblages uniques avec des niveaux élevés d'endémisme et de nombreuses adaptations avancées aux conditions arides.
 </t>
